--- a/tabla_b.xlsx
+++ b/tabla_b.xlsx
@@ -14,37 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>CODSUM</t>
-  </si>
-  <si>
-    <t>NUMERACION</t>
-  </si>
-  <si>
-    <t>ATC - 01 -2023/ICA</t>
-  </si>
-  <si>
-    <t>ATC - 02-2023/ICA</t>
-  </si>
-  <si>
-    <t>ATC - 03 -2023/ICA</t>
-  </si>
-  <si>
-    <t>ATC - 04 -2023/ICA</t>
-  </si>
-  <si>
-    <t>ATC - 05 -2023/ICA</t>
-  </si>
-  <si>
-    <t>ATC - 06-2023/ICA</t>
+    <t>SUMINISTRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,21 +32,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -80,7 +54,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,30 +68,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -125,15 +101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,72 +416,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>101090101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>101069997</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>101001381</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>700043730</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>101086169</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>101085220</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>101067264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>101074942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>101028629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>101028722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>101028737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>101028727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>101067264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>101091029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>101028603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>101055755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>101056432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>700028026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>101027103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>101027105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>101064641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>101070480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>101027100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>101062381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>101053333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>101074948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>101061521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>700008306</v>
       </c>
     </row>
   </sheetData>

--- a/tabla_b.xlsx
+++ b/tabla_b.xlsx
@@ -1,29 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Escritorio\autopython2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>SUMINISTRO</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>NUMEROFICHA</t>
+  </si>
+  <si>
+    <t>ROSA JULIA GARCIA CARHUAYO</t>
+  </si>
+  <si>
+    <t>332076ROSA JULIA GARCIA CARHUAYO</t>
+  </si>
+  <si>
+    <t>332074ROSA JULIA GARCIA CARHUAYO</t>
+  </si>
+  <si>
+    <t>ISABEL GALVAN CANTORAL</t>
+  </si>
+  <si>
+    <t>332079ISABEL GALVAN CANTORAL</t>
+  </si>
+  <si>
+    <t>CLEMENTINA LOVERA VDA. DE FLORES</t>
+  </si>
+  <si>
+    <t>269811CLEMENTINA LOVERA VDA. DE FLORES</t>
+  </si>
+  <si>
+    <t>MARIA M. TATAJE M.</t>
+  </si>
+  <si>
+    <t>332078MARIA M. TATAJE M.</t>
+  </si>
+  <si>
+    <t>PEDRO JULIO ESCATE MUÑANTE</t>
+  </si>
+  <si>
+    <t>332077PEDRO JULIO ESCATE MUÑANTE</t>
+  </si>
+  <si>
+    <t>ISABEL LEVANO D.</t>
+  </si>
+  <si>
+    <t>332075ISABEL LEVANO D.</t>
+  </si>
+  <si>
+    <t>NILTON FELIPE HUAYLLA ZEGARRA</t>
+  </si>
+  <si>
+    <t>332073NILTON FELIPE HUAYLLA ZEGARRA</t>
+  </si>
+  <si>
+    <t>PEDRO MARTINEZ</t>
+  </si>
+  <si>
+    <t>332072PEDRO MARTINEZ</t>
+  </si>
+  <si>
+    <t>MARIA HAYDEE MUÑOZ DE MONTERREY</t>
+  </si>
+  <si>
+    <t>332071MARIA HAYDEE MUÑOZ DE MONTERREY</t>
+  </si>
+  <si>
+    <t>ROSE MARY GONZALES DE GASTELU</t>
+  </si>
+  <si>
+    <t>332070ROSE MARY GONZALES DE GASTELU</t>
+  </si>
+  <si>
+    <t>INVERSIONES EL CATADOR S.A.C.</t>
+  </si>
+  <si>
+    <t>332069INVERSIONES EL CATADOR S.A.C.</t>
+  </si>
+  <si>
+    <t>LEONCIO GONZALES M.</t>
+  </si>
+  <si>
+    <t>332068LEONCIO GONZALES M.</t>
+  </si>
+  <si>
+    <t>JORGE CARRASCO P.</t>
+  </si>
+  <si>
+    <t>332067JORGE CARRASCO P.</t>
+  </si>
+  <si>
+    <t>CRISTEL ROXANA CARRASCO GONZALES</t>
+  </si>
+  <si>
+    <t>332066CRISTEL ROXANA CARRASCO GONZALES</t>
+  </si>
+  <si>
+    <t>REST.CAMP.LA OLLA DE JUANITA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>332065REST.CAMP.LA OLLA DE JUANITA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ANGELA DE PEÑA</t>
+  </si>
+  <si>
+    <t>332064ANGELA DE PEÑA</t>
+  </si>
+  <si>
+    <t>JUANA ROSA PEÑA LEVANO</t>
+  </si>
+  <si>
+    <t>332063JUANA ROSA PEÑA LEVANO</t>
+  </si>
+  <si>
+    <t>PABLO MAURO LOPEZ MAYURI</t>
+  </si>
+  <si>
+    <t>332062PABLO MAURO LOPEZ MAYURI</t>
+  </si>
+  <si>
+    <t>LA CAPILLA DE TRES ESQUINAS</t>
+  </si>
+  <si>
+    <t>332061LA CAPILLA DE TRES ESQUINAS</t>
+  </si>
+  <si>
+    <t>VERONICA SABINA VASQUEZ MOQUILLAZA</t>
+  </si>
+  <si>
+    <t>332060VERONICA SABINA VASQUEZ MOQUILLAZA</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ROMANI QUISPE</t>
+  </si>
+  <si>
+    <t>268940JUAN CARLOS ROMANI QUISPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,32 +174,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,32 +194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -101,23 +212,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,10 +309,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,133 +519,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>101067264</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101067264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>101074942</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>101028629</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>101028722</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>101028737</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>101028727</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>101067264</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101067264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>101091029</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>101028603</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>101055755</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>101056432</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>700028026</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>101027103</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>101027105</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>101064641</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>101070480</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>101027100</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>101062381</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>101053333</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>101074948</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>101061521</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>700008306</v>
       </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tabla_b.xlsx
+++ b/tabla_b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>SUMINISTRO</t>
   </si>
@@ -27,136 +27,73 @@
     <t>NOMBRES</t>
   </si>
   <si>
-    <t>NUMEROFICHA</t>
+    <t>NUMEROFICHA_x</t>
+  </si>
+  <si>
+    <t>NUMEROFICHA_y</t>
   </si>
   <si>
     <t>ROSA JULIA GARCIA CARHUAYO</t>
   </si>
   <si>
-    <t>332076ROSA JULIA GARCIA CARHUAYO</t>
-  </si>
-  <si>
-    <t>332074ROSA JULIA GARCIA CARHUAYO</t>
-  </si>
-  <si>
     <t>ISABEL GALVAN CANTORAL</t>
   </si>
   <si>
-    <t>332079ISABEL GALVAN CANTORAL</t>
-  </si>
-  <si>
     <t>CLEMENTINA LOVERA VDA. DE FLORES</t>
   </si>
   <si>
-    <t>269811CLEMENTINA LOVERA VDA. DE FLORES</t>
-  </si>
-  <si>
     <t>MARIA M. TATAJE M.</t>
   </si>
   <si>
-    <t>332078MARIA M. TATAJE M.</t>
-  </si>
-  <si>
     <t>PEDRO JULIO ESCATE MUÑANTE</t>
   </si>
   <si>
-    <t>332077PEDRO JULIO ESCATE MUÑANTE</t>
-  </si>
-  <si>
     <t>ISABEL LEVANO D.</t>
   </si>
   <si>
-    <t>332075ISABEL LEVANO D.</t>
-  </si>
-  <si>
     <t>NILTON FELIPE HUAYLLA ZEGARRA</t>
   </si>
   <si>
-    <t>332073NILTON FELIPE HUAYLLA ZEGARRA</t>
-  </si>
-  <si>
     <t>PEDRO MARTINEZ</t>
   </si>
   <si>
-    <t>332072PEDRO MARTINEZ</t>
-  </si>
-  <si>
     <t>MARIA HAYDEE MUÑOZ DE MONTERREY</t>
   </si>
   <si>
-    <t>332071MARIA HAYDEE MUÑOZ DE MONTERREY</t>
-  </si>
-  <si>
     <t>ROSE MARY GONZALES DE GASTELU</t>
   </si>
   <si>
-    <t>332070ROSE MARY GONZALES DE GASTELU</t>
-  </si>
-  <si>
     <t>INVERSIONES EL CATADOR S.A.C.</t>
   </si>
   <si>
-    <t>332069INVERSIONES EL CATADOR S.A.C.</t>
-  </si>
-  <si>
     <t>LEONCIO GONZALES M.</t>
   </si>
   <si>
-    <t>332068LEONCIO GONZALES M.</t>
-  </si>
-  <si>
     <t>JORGE CARRASCO P.</t>
   </si>
   <si>
-    <t>332067JORGE CARRASCO P.</t>
-  </si>
-  <si>
     <t>CRISTEL ROXANA CARRASCO GONZALES</t>
   </si>
   <si>
-    <t>332066CRISTEL ROXANA CARRASCO GONZALES</t>
-  </si>
-  <si>
     <t>REST.CAMP.LA OLLA DE JUANITA E.I.R.L.</t>
   </si>
   <si>
-    <t>332065REST.CAMP.LA OLLA DE JUANITA E.I.R.L.</t>
-  </si>
-  <si>
     <t>ANGELA DE PEÑA</t>
   </si>
   <si>
-    <t>332064ANGELA DE PEÑA</t>
-  </si>
-  <si>
     <t>JUANA ROSA PEÑA LEVANO</t>
   </si>
   <si>
-    <t>332063JUANA ROSA PEÑA LEVANO</t>
-  </si>
-  <si>
     <t>PABLO MAURO LOPEZ MAYURI</t>
   </si>
   <si>
-    <t>332062PABLO MAURO LOPEZ MAYURI</t>
-  </si>
-  <si>
     <t>LA CAPILLA DE TRES ESQUINAS</t>
   </si>
   <si>
-    <t>332061LA CAPILLA DE TRES ESQUINAS</t>
-  </si>
-  <si>
     <t>VERONICA SABINA VASQUEZ MOQUILLAZA</t>
   </si>
   <si>
-    <t>332060VERONICA SABINA VASQUEZ MOQUILLAZA</t>
-  </si>
-  <si>
     <t>JUAN CARLOS ROMANI QUISPE</t>
-  </si>
-  <si>
-    <t>268940JUAN CARLOS ROMANI QUISPE</t>
   </si>
 </sst>
 </file>
@@ -519,20 +456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,269 +477,316 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101067264</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>332076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101067264</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>332074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>101067264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>332076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>101067264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>332074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>101074942</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>101074942</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6">
+        <v>332079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>101028629</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D7">
+        <v>269811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>101028722</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>101028629</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D8">
+        <v>332078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>101028737</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9">
+        <v>332077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101028727</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>101028722</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D10">
+        <v>332075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>101067264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>332076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>101067264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>332074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>101067264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>332076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>101067264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>332074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>101091029</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D15">
+        <v>332073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>101028603</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>101028737</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D16">
+        <v>332072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>101055755</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D17">
+        <v>332071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>101056432</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>101028727</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D18">
+        <v>332070</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>700028026</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D19">
+        <v>332069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>101027103</v>
+      </c>
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>101067264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>101067264</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>101091029</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D20">
+        <v>332068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>101027105</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D21">
+        <v>332067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>101064641</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>101028603</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D22">
+        <v>332066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>101070480</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D23">
+        <v>332065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>101027100</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>101055755</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D24">
+        <v>332064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>101062381</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D25">
+        <v>332063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>101053333</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>101056432</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D26">
+        <v>332062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>101074948</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D27">
+        <v>332061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>101061521</v>
+      </c>
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>700028026</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D28">
+        <v>332060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>700008306</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>101027103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>101027105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>101064641</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>101070480</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>101027100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>101062381</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>101053333</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>101074948</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>101061521</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>700008306</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
+      <c r="D29">
+        <v>268940</v>
       </c>
     </row>
   </sheetData>
